--- a/xlsxmaps/level_0009.xlsx
+++ b/xlsxmaps/level_0009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8776832-2302-4647-9552-7024FC273C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAE4CBC-6DE7-4866-97E7-75A275205E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -1356,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2658,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769616F7-410D-4FF1-BB77-94994632221D}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2723,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -2742,14 +2742,14 @@
       <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
+      <c r="B4" s="2">
+        <v>11001000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11001000</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -2765,17 +2765,17 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="D5" s="2">
-        <v>11001000</v>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>11001000</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>

--- a/xlsxmaps/level_0009.xlsx
+++ b/xlsxmaps/level_0009.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAE4CBC-6DE7-4866-97E7-75A275205E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F069125D-DA04-4F06-AC26-E830DBF4E354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表 1-1" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表 1 (4)" sheetId="9" r:id="rId1"/>
+    <sheet name="工作表 1 (3)" sheetId="8" r:id="rId2"/>
     <sheet name="工作表 1 (2)" sheetId="6" r:id="rId3"/>
-    <sheet name="工作表 1 (3)" sheetId="8" r:id="rId4"/>
-    <sheet name="工作表 1 (4)" sheetId="9" r:id="rId5"/>
+    <sheet name="工作表 1-1" sheetId="2" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId5"/>
     <sheet name="工作表 1 (5)" sheetId="10" r:id="rId6"/>
     <sheet name="工作表 1 (6)" sheetId="11" r:id="rId7"/>
     <sheet name="工作表 1 (7)" sheetId="12" r:id="rId8"/>
@@ -1353,18 +1353,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA3511-C782-46B5-B49A-715DC60CE1D0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="8"/>
-    <col min="2" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="1"/>
+    <col min="2" max="8" width="16.28515625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
@@ -1392,137 +1392,137 @@
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>21001000</v>
-      </c>
-      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>20000000</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="D4" s="2">
+        <v>21001000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21001000</v>
+      </c>
+      <c r="D5" s="2">
         <v>20000000</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="2">
-        <v>21001000</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>21001000</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="2">
-        <v>21001000</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
-        <v>21001000</v>
+      <c r="F5" s="4">
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="2">
-        <v>20000000</v>
+      <c r="A6" s="4">
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20000000</v>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="2">
-        <v>21001000</v>
+      <c r="A7" s="4">
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1539,11 +1539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ACD881-4847-4F8D-9961-EA4B4D051898}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1577,114 +1577,114 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
         <v>21001000</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C4" s="2">
         <v>20000000</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D4" s="2">
         <v>21001000</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
         <v>20000000</v>
       </c>
-      <c r="E3" s="2">
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
         <v>21001000</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="2">
+      <c r="C6" s="2">
         <v>20000000</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="2">
+      <c r="D6" s="2">
         <v>21001000</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>21001000</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
       <c r="E6" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="4">
@@ -1692,22 +1692,22 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="2">
-        <v>21001000</v>
+      <c r="A7" s="4">
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>21001000</v>
-      </c>
-      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="4">
@@ -1717,7 +1717,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1911,11 +1911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ACD881-4847-4F8D-9961-EA4B4D051898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1949,43 +1949,43 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4">
-        <v>0</v>
+      <c r="A3" s="2">
+        <v>21001000</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>21001000</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>21001000</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -1995,91 +1995,91 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4">
-        <v>0</v>
+      <c r="A4" s="2">
+        <v>20000000</v>
       </c>
       <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
         <v>21001000</v>
       </c>
-      <c r="C4" s="2">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21001000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
         <v>20000000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
         <v>21001000</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B7" s="2">
         <v>20000000</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C7" s="2">
+        <v>21001000</v>
+      </c>
+      <c r="D7" s="2">
         <v>20000000</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="E7" s="2">
         <v>21001000</v>
       </c>
-      <c r="C6" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="D6" s="2">
-        <v>21001000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
       <c r="G7" s="4">
@@ -2089,7 +2089,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2097,18 +2097,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA3511-C782-46B5-B49A-715DC60CE1D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="8"/>
-    <col min="2" max="8" width="16.28515625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="8"/>
+    <col min="2" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
@@ -2136,137 +2136,137 @@
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>21001000</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>21001000</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>21001000</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+        <v>21001000</v>
+      </c>
+      <c r="G2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>0</v>
+        <v>20000000</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>21001000</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>21001000</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
+        <v>21001000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>21001000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
         <v>20000000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
         <v>21001000</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B7" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="C7" s="2">
         <v>21001000</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="2">
+        <v>21001000</v>
+      </c>
+      <c r="E7" s="2">
         <v>20000000</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>21001000</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -2658,7 +2658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769616F7-410D-4FF1-BB77-94994632221D}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/xlsxmaps/level_0009.xlsx
+++ b/xlsxmaps/level_0009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F069125D-DA04-4F06-AC26-E830DBF4E354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2FB617-1C03-4BD8-A6D9-DBF6212DB8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 (4)" sheetId="9" r:id="rId1"/>
@@ -1356,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA3511-C782-46B5-B49A-715DC60CE1D0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1627,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>21001000</v>
+        <v>20000000</v>
       </c>
       <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>20000000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>21001000</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1650,13 +1650,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1673,13 +1673,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>21001000</v>
+        <v>20000000</v>
       </c>
       <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>20000000</v>
-      </c>
-      <c r="D6" s="2">
-        <v>21001000</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1729,7 +1729,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1790,16 +1790,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>21001000</v>
-      </c>
-      <c r="C3" s="2">
         <v>20000000</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>20000000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>21001000</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -1812,8 +1812,8 @@
       <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
-        <v>20000000</v>
+      <c r="B4" s="7">
+        <v>0</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1821,8 +1821,8 @@
       <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
-        <v>20000000</v>
+      <c r="E4" s="7">
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -1835,8 +1835,8 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
-        <v>20000000</v>
+      <c r="B5" s="7">
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1844,8 +1844,8 @@
       <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
-        <v>20000000</v>
+      <c r="E5" s="7">
+        <v>0</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -1859,16 +1859,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>21001000</v>
-      </c>
-      <c r="C6" s="2">
         <v>20000000</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>20000000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>21001000</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1979,7 +1979,7 @@
         <v>20000000</v>
       </c>
       <c r="C3" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <v>20000000</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>20000000</v>
       </c>
       <c r="C7" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
         <v>20000000</v>
@@ -2100,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2141,11 +2141,11 @@
       <c r="B2" s="2">
         <v>20000000</v>
       </c>
-      <c r="C2" s="2">
-        <v>21001000</v>
-      </c>
-      <c r="D2" s="2">
-        <v>21001000</v>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>20000000</v>
@@ -2181,8 +2181,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="2">
-        <v>21001000</v>
+      <c r="A4" s="3">
+        <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -2196,16 +2196,16 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
-        <v>21001000</v>
+      <c r="F4" s="3">
+        <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="2">
-        <v>21001000</v>
+      <c r="A5" s="3">
+        <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -2219,8 +2219,8 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
-        <v>21001000</v>
+      <c r="F5" s="3">
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -2256,11 +2256,11 @@
       <c r="B7" s="2">
         <v>20000000</v>
       </c>
-      <c r="C7" s="2">
-        <v>21001000</v>
-      </c>
-      <c r="D7" s="2">
-        <v>21001000</v>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>20000000</v>
@@ -3019,7 +3019,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/xlsxmaps/level_0009.xlsx
+++ b/xlsxmaps/level_0009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2FB617-1C03-4BD8-A6D9-DBF6212DB8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2332FCA3-17FE-439B-BBCA-24EF756FCFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 (4)" sheetId="9" r:id="rId1"/>
@@ -1356,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA3511-C782-46B5-B49A-715DC60CE1D0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1914,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1973,19 +1973,19 @@
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
-        <v>21001000</v>
+        <v>31001000</v>
       </c>
       <c r="B3" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="E3" s="2">
-        <v>21001000</v>
+        <v>31001000</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2065,19 +2065,19 @@
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
-        <v>21001000</v>
+        <v>31001000</v>
       </c>
       <c r="B7" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="E7" s="2">
-        <v>21001000</v>
+        <v>31001000</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -2101,7 +2101,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
-        <v>21001000</v>
+        <v>31001000</v>
       </c>
       <c r="B2" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -2148,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="F2" s="2">
-        <v>21001000</v>
+        <v>31001000</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
-        <v>21001000</v>
+        <v>31001000</v>
       </c>
       <c r="B7" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="F7" s="2">
-        <v>21001000</v>
+        <v>31001000</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>

--- a/xlsxmaps/level_0009.xlsx
+++ b/xlsxmaps/level_0009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2332FCA3-17FE-439B-BBCA-24EF756FCFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56380A2B-AB15-4526-A4B7-EF79526726EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 (4)" sheetId="9" r:id="rId1"/>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1652,8 +1652,8 @@
       <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
+      <c r="C5" s="2">
+        <v>20000000</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1914,7 +1914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2844,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E6F21E-5C45-44BB-90EF-28751DFCAC25}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
